--- a/ig/ch-epreg/StructureDefinition-ch-epreg-relatedperson-parent.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-relatedperson-parent.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -455,7 +455,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -465,26 +465,11 @@
     <t>The patient's legal status as citizen of a country.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Nationalität | Nationalité</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-note}
-</t>
-  </si>
-  <si>
-    <t>CH EPREG Extension: Note</t>
-  </si>
-  <si>
-    <t>This extension represents a comment.</t>
-  </si>
-  <si>
-    <t>Bemerkungen | Remarques</t>
   </si>
   <si>
     <t>RelatedPerson.modifierExtension</t>
@@ -791,10 +776,6 @@
     <t>Extension for eCH-0011 - namedatatype</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.name.family.value</t>
   </si>
   <si>
@@ -890,7 +871,7 @@
     <t>salutationandtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1484,8 +1465,7 @@
     <t>If a related person does not speak the local language, interpreters may be required, so languages spoken and proficiency is an important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>Kommunikationssprache | Langue de communication</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1548,36 +1528,6 @@
   </si>
   <si>
     <t>preferenceInd</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>Kommunikationssprache | Langue de communication</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1908,9 +1858,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.1953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.73046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -3071,13 +3021,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3091,35 +3041,33 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>148</v>
@@ -3127,8 +3075,12 @@
       <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3176,7 +3128,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3191,10 +3143,10 @@
         <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -3205,14 +3157,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3225,25 +3177,23 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3292,7 +3242,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3304,27 +3254,27 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3335,84 +3285,88 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3424,21 +3378,21 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3446,7 +3400,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -3455,79 +3409,75 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>87</v>
@@ -3542,21 +3492,21 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3567,7 +3517,7 @@
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3579,17 +3529,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3614,13 +3564,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3638,13 +3588,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3653,24 +3603,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3678,13 +3628,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
@@ -3693,17 +3643,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3728,31 +3678,31 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3767,24 +3717,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3795,30 +3745,28 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3866,50 +3814,50 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3921,7 +3869,7 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>204</v>
@@ -3929,7 +3877,9 @@
       <c r="M18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3966,37 +3916,37 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4014,26 +3964,26 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>209</v>
@@ -4042,9 +3992,11 @@
         <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4068,63 +4020,63 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4141,25 +4093,25 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4184,13 +4136,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4208,7 +4160,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4226,25 +4178,25 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4254,7 +4206,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4263,20 +4215,18 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4324,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4339,28 +4289,28 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4370,26 +4320,24 @@
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4438,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4450,27 +4398,27 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4481,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4493,13 +4441,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4538,31 +4486,29 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4579,12 +4525,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4593,7 +4541,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4605,13 +4553,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4650,17 +4598,19 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4669,7 +4619,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>138</v>
@@ -4689,14 +4639,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4717,13 +4665,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4747,7 +4695,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>78</v>
@@ -4774,62 +4722,62 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>251</v>
@@ -4837,7 +4785,9 @@
       <c r="M26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4859,7 +4809,7 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>78</v>
@@ -4892,66 +4842,64 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5000,39 +4948,39 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5043,7 +4991,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5055,13 +5003,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5100,31 +5048,29 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5141,12 +5087,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5155,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5167,13 +5115,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5212,17 +5160,19 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5231,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>138</v>
@@ -5251,14 +5201,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5279,13 +5227,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5309,7 +5257,7 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="X30" t="s" s="2">
         <v>78</v>
@@ -5336,19 +5284,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5365,10 +5313,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5379,7 +5327,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5388,16 +5336,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5421,7 +5369,7 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
         <v>78</v>
@@ -5448,31 +5396,31 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5491,7 +5439,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5500,16 +5448,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5560,39 +5508,39 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5603,7 +5551,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5615,13 +5563,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5660,31 +5608,29 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5701,12 +5647,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5727,15 +5675,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5772,17 +5722,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5743,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>138</v>
@@ -5800,7 +5752,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5811,14 +5763,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C35" t="s" s="2">
         <v>280</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5827,7 +5777,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5839,17 +5789,15 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5871,7 +5819,7 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="X35" t="s" s="2">
         <v>78</v>
@@ -5898,25 +5846,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5927,10 +5875,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5941,7 +5889,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5950,16 +5898,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5983,7 +5931,7 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>78</v>
@@ -6010,31 +5958,31 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -6053,7 +6001,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6065,16 +6013,18 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6122,13 +6072,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6140,21 +6090,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6165,7 +6115,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6177,17 +6127,19 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6224,25 +6176,23 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6254,21 +6204,21 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6279,7 +6229,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6288,23 +6238,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6340,60 +6286,62 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6353,7 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>204</v>
@@ -6413,7 +6361,9 @@
       <c r="M40" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6450,37 +6400,37 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6491,21 +6441,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6514,20 +6464,18 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6552,63 +6500,63 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6631,16 +6579,20 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6664,13 +6616,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6688,7 +6640,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6697,7 +6649,7 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
@@ -6706,21 +6658,21 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6728,7 +6680,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
@@ -6737,25 +6689,25 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6780,13 +6732,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6804,7 +6756,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6822,21 +6774,21 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6853,26 +6805,24 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6896,13 +6846,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6920,7 +6870,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6938,13 +6888,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>337</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6975,17 +6925,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7034,7 +6982,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7052,23 +7000,25 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7077,7 +7027,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7089,16 +7039,20 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7146,13 +7100,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7164,25 +7118,23 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7191,7 +7143,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7200,23 +7152,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7264,50 +7212,50 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7319,7 +7267,7 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>204</v>
@@ -7327,7 +7275,9 @@
       <c r="M48" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7364,37 +7314,37 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7405,21 +7355,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7428,27 +7378,25 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -7466,63 +7414,63 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7545,22 +7493,26 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -7578,13 +7530,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7602,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7611,7 +7563,7 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
@@ -7620,21 +7572,21 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7642,7 +7594,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7651,25 +7603,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7646,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7718,7 +7670,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7736,21 +7688,21 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7767,26 +7719,22 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7810,13 +7758,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7834,7 +7782,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7846,27 +7794,27 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7877,7 +7825,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7889,13 +7837,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7934,31 +7882,29 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7975,12 +7921,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7989,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8001,13 +7949,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8046,17 +7994,19 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8065,7 +8015,7 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>138</v>
@@ -8074,7 +8024,7 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8085,14 +8035,12 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8113,13 +8061,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8170,25 +8118,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8199,10 +8147,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8222,18 +8170,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8282,7 +8232,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8294,24 +8244,24 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>338</v>
@@ -8337,17 +8287,15 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8396,7 +8344,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8414,21 +8362,21 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8448,16 +8396,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8508,7 +8456,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8520,38 +8468,38 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8563,7 +8511,7 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>204</v>
@@ -8571,7 +8519,9 @@
       <c r="M59" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8608,37 +8558,37 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8649,21 +8599,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8672,19 +8622,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8722,51 +8672,51 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8789,22 +8739,24 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8848,7 +8800,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8857,7 +8809,7 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>99</v>
@@ -8866,23 +8818,25 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8891,7 +8845,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8903,24 +8857,24 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q62" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8964,16 +8918,16 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>99</v>
@@ -8982,25 +8936,23 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>392</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9009,7 +8961,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9018,23 +8970,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9082,50 +9030,50 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9137,7 +9085,7 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>204</v>
@@ -9145,7 +9093,9 @@
       <c r="M64" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9182,37 +9132,37 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9223,21 +9173,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9246,27 +9196,25 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>78</v>
@@ -9284,63 +9232,63 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9363,22 +9311,26 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>78</v>
@@ -9396,13 +9348,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9420,7 +9372,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9429,7 +9381,7 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>99</v>
@@ -9438,21 +9390,21 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9460,7 +9412,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9469,25 +9421,25 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9512,13 +9464,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9536,7 +9488,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9554,21 +9506,21 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9585,26 +9537,22 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9628,13 +9576,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9652,7 +9600,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9664,27 +9612,27 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9695,7 +9643,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9707,13 +9655,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9752,31 +9700,29 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9793,12 +9739,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9807,7 +9755,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9819,13 +9767,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9864,17 +9812,19 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9883,7 +9833,7 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>138</v>
@@ -9892,7 +9842,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9903,14 +9853,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>78</v>
       </c>
@@ -9931,13 +9879,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>405</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9988,25 +9936,25 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10017,10 +9965,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10040,18 +9988,20 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10100,7 +10050,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10112,24 +10062,24 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>338</v>
@@ -10155,17 +10105,15 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10214,7 +10162,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10232,21 +10180,21 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10266,16 +10214,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10326,7 +10274,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10338,38 +10286,38 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10381,7 +10329,7 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>204</v>
@@ -10389,7 +10337,9 @@
       <c r="M75" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10426,37 +10376,37 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10467,21 +10417,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10490,19 +10440,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10540,51 +10490,51 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10607,22 +10557,24 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="R77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10666,7 +10618,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10627,7 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>99</v>
@@ -10684,23 +10636,25 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10709,7 +10663,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10721,24 +10675,24 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10782,16 +10736,16 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>99</v>
@@ -10800,25 +10754,23 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>392</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10827,7 +10779,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10836,23 +10788,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10900,50 +10848,50 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10955,7 +10903,7 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>204</v>
@@ -10963,7 +10911,9 @@
       <c r="M80" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11000,37 +10950,37 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11041,21 +10991,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11064,27 +11014,25 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>78</v>
@@ -11102,63 +11050,63 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11181,22 +11129,26 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>78</v>
@@ -11214,13 +11166,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11238,7 +11190,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11247,7 +11199,7 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>99</v>
@@ -11256,21 +11208,21 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11278,7 +11230,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>87</v>
@@ -11287,25 +11239,25 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11330,13 +11282,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11354,7 +11306,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11372,21 +11324,21 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11403,26 +11355,22 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11446,13 +11394,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11470,7 +11418,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11482,27 +11430,27 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11513,7 +11461,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11525,13 +11473,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11570,31 +11518,29 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -11611,12 +11557,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11625,7 +11573,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -11637,13 +11585,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11682,17 +11630,19 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11701,7 +11651,7 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>138</v>
@@ -11710,7 +11660,7 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11721,14 +11671,12 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>78</v>
       </c>
@@ -11749,13 +11697,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11806,25 +11754,25 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11835,10 +11783,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11858,18 +11806,20 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -11918,7 +11868,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -11930,24 +11880,24 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>338</v>
@@ -11973,17 +11923,15 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12032,7 +11980,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12050,21 +11998,21 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12084,16 +12032,16 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12144,7 +12092,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12156,38 +12104,38 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12199,7 +12147,7 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>204</v>
@@ -12207,7 +12155,9 @@
       <c r="M91" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12244,37 +12194,37 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12285,21 +12235,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12308,19 +12258,19 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12358,51 +12308,51 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>212</v>
+        <v>374</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12425,22 +12375,24 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="R93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12484,7 +12436,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12493,7 +12445,7 @@
         <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>99</v>
@@ -12502,21 +12454,21 @@
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12539,24 +12491,22 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q94" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12576,13 +12526,13 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12600,7 +12550,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -12609,7 +12559,7 @@
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>99</v>
@@ -12618,21 +12568,21 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12655,18 +12605,16 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>107</v>
+        <v>437</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12690,13 +12638,13 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -12714,7 +12662,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -12729,16 +12677,16 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" hidden="true">
@@ -12757,7 +12705,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -12778,7 +12726,9 @@
         <v>445</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -12832,7 +12782,7 @@
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
@@ -12841,7 +12791,7 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>447</v>
@@ -12850,15 +12800,15 @@
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12878,20 +12828,20 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -12940,7 +12890,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -12958,21 +12908,21 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12983,7 +12933,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -12995,7 +12945,7 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>456</v>
+        <v>288</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>457</v>
@@ -13004,9 +12954,7 @@
         <v>458</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13054,13 +13002,13 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
@@ -13072,21 +13020,21 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM98" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN98" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13097,7 +13045,7 @@
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13109,7 +13057,7 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>463</v>
@@ -13117,8 +13065,12 @@
       <c r="M99" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13166,13 +13118,13 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
@@ -13181,13 +13133,13 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13195,10 +13147,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13209,7 +13161,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13221,20 +13173,16 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>468</v>
+        <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>469</v>
+        <v>199</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13270,35 +13218,37 @@
         <v>78</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>467</v>
+        <v>201</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13309,21 +13259,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13335,7 +13285,7 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>204</v>
@@ -13343,7 +13293,9 @@
       <c r="M101" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -13392,25 +13344,25 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13421,14 +13373,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>152</v>
+        <v>472</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13441,24 +13393,26 @@
         <v>78</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>209</v>
+        <v>473</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>210</v>
+        <v>474</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13506,7 +13460,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13524,7 +13478,7 @@
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13535,45 +13489,45 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -13598,13 +13552,13 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -13622,25 +13576,25 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13662,7 +13616,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>87</v>
@@ -13677,7 +13631,7 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>483</v>
@@ -13714,13 +13668,13 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -13741,7 +13695,7 @@
         <v>482</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>87</v>
@@ -13765,826 +13719,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN111">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AN104">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
